--- a/Terminal/src/database/resources/students.xlsx
+++ b/Terminal/src/database/resources/students.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomy\eclipse-workspace\StudentCardProject\Database\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomy\eclipse-workspace\StudentCardProject\Terminal\src\database\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C460AE55-3A29-427A-9E6C-077FA4C7B46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FCFFEA-E3CD-4043-8823-0808DE0205C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2316" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="1284" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -79,6 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -122,11 +123,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -167,165 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,21 +452,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -671,8 +517,8 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="196" t="b">
-        <f>IF(OR(E2&gt;=5,AND(E2 &lt; 5, F2 = TRUE, G2 = 2)),TRUE,FALSE)</f>
+      <c r="H2" t="b">
+        <f>IF(OR(E2&gt;=5,AND(E2 &lt; 5, F2 = TRUE, G2 &gt;= 1)),TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -698,8 +544,8 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="196" t="b">
-        <f t="shared" ref="H3:H26" si="0">IF(OR(E3&gt;=5,AND(E3 &lt; 5, F3 = TRUE, G3 = 2)),TRUE,FALSE)</f>
+      <c r="H3" s="52" t="b">
+        <f t="shared" ref="H3:H26" si="0">IF(OR(E3&gt;=5,AND(E3 &lt; 5, F3 = TRUE, G3 &gt;= 1)),TRUE,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -725,7 +571,7 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="196" t="b">
+      <c r="H4" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -752,7 +598,7 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="196" t="b">
+      <c r="H5" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -777,9 +623,9 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -806,7 +652,7 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="196" t="b">
+      <c r="H7" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -831,9 +677,9 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -860,7 +706,7 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="196" t="b">
+      <c r="H9" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -881,15 +727,15 @@
       <c r="E10" s="3">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
+      <c r="F10" s="54" t="b">
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="196" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H10" s="55" t="b">
+        <f>IF(OR(E10&gt;= 5,AND(E10 &lt; 5, F10 = TRUE, G10 &gt;= 1)),TRUE,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -914,7 +760,7 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="196" t="b">
+      <c r="H11" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -939,9 +785,9 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -968,7 +814,7 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="196" t="b">
+      <c r="H13" s="52" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -995,7 +841,7 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="196" t="b">
+      <c r="H14" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1020,9 +866,9 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1049,7 +895,7 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="196" t="b">
+      <c r="H16" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1076,7 +922,7 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="196" t="b">
+      <c r="H17" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1103,7 +949,7 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="196" t="b">
+      <c r="H18" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1130,7 +976,7 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="196" t="b">
+      <c r="H19" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1157,7 +1003,7 @@
       <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="196" t="b">
+      <c r="H20" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1182,9 +1028,9 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>2</v>
-      </c>
-      <c r="H21" s="196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1211,7 +1057,7 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="196" t="b">
+      <c r="H22" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1238,7 +1084,7 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="196" t="b">
+      <c r="H23" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1263,9 +1109,9 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
-      </c>
-      <c r="H24" s="196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1292,7 +1138,7 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="196" t="b">
+      <c r="H25" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1317,312 +1163,72 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>2</v>
-      </c>
-      <c r="H26" s="196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="52" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="197"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="196"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="197"/>
-      <c r="B28" s="197"/>
-      <c r="C28" s="196"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="196"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="197"/>
-      <c r="B29" s="197"/>
-      <c r="C29" s="196"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="196"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="197"/>
-      <c r="B30" s="197"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="198"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="196"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="197"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="196"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="197"/>
-      <c r="B32" s="197"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="196"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="51"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="59"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="67"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="68"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="75"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="91"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="92"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="100"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="107"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="108"/>
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="115"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="116"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="123"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="124"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="131"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="132"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="139"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="140"/>
-      <c r="B50" s="141"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="147"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="148"/>
-      <c r="B51" s="149"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="155"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="156"/>
-      <c r="B52" s="157"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="162"/>
-      <c r="H52" s="163"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="164"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="168"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="169"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="171"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="172"/>
-      <c r="B54" s="173"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="175"/>
-      <c r="F54" s="177"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="179"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="180"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="182"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="183"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="186"/>
-      <c r="H55" s="187"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="188"/>
-      <c r="B56" s="189"/>
-      <c r="C56" s="190"/>
-      <c r="D56" s="192"/>
-      <c r="E56" s="191"/>
-      <c r="F56" s="193"/>
-      <c r="G56" s="194"/>
-      <c r="H56" s="195"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H26" xr:uid="{0A7D4BFD-7795-4738-B022-94CB9D7CE594}"/>
